--- a/data/trans_dic/P34B02_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P34B02_R-Dificultad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.04172782694771236</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.08961124997056991</v>
+        <v>0.08961124997056992</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.04830917785583536</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04647476162366486</v>
+        <v>0.04730772792826166</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05726106251745649</v>
+        <v>0.05746067489470628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1243598334036507</v>
+        <v>0.1258800530498159</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02654483300658001</v>
+        <v>0.02556812236619108</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03152143449788506</v>
+        <v>0.03176039362160051</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07024295677712136</v>
+        <v>0.06799540224662176</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03929226576006806</v>
+        <v>0.03977789251792892</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04771082860986565</v>
+        <v>0.04688012196950399</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1026175258411025</v>
+        <v>0.1008387509186372</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07803405753074991</v>
+        <v>0.07663605724430785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09064079750351649</v>
+        <v>0.08952045117341936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2013552295922498</v>
+        <v>0.2019167640912054</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05041483388094797</v>
+        <v>0.05144338797873325</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05486694289627125</v>
+        <v>0.0539109823384706</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1142430229984114</v>
+        <v>0.1119553467824241</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05767471236395261</v>
+        <v>0.05855559307684761</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0664549420350479</v>
+        <v>0.06631489203542963</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.144274422514816</v>
+        <v>0.1442115045905105</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.0473650181664713</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.09732067849934695</v>
+        <v>0.09732067849934696</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.034958048319996</v>
@@ -773,7 +773,7 @@
         <v>0.05950250025446573</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.1489430177750949</v>
+        <v>0.148943017775095</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03023873176059213</v>
+        <v>0.03122426258370762</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05610332791890192</v>
+        <v>0.05725264794843309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1778633086847481</v>
+        <v>0.1800558578051233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01828084480911932</v>
+        <v>0.01886308109871306</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03550005969739482</v>
+        <v>0.03530364224086781</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08176712585750238</v>
+        <v>0.0809993575862782</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02761499217782502</v>
+        <v>0.02743046928261155</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04909758495381372</v>
+        <v>0.04930918756254411</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1317141873039281</v>
+        <v>0.132246757680269</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05668106911450819</v>
+        <v>0.05815613464045337</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09208225582868727</v>
+        <v>0.09162087727844892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2398858704368784</v>
+        <v>0.2421522409750106</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03754256540240612</v>
+        <v>0.03857234052790642</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06331897181617574</v>
+        <v>0.06387352611934208</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.114918920854589</v>
+        <v>0.1161176452406002</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04357459013142368</v>
+        <v>0.04396850574916189</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07065463502249561</v>
+        <v>0.07260302619505273</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1677996766319873</v>
+        <v>0.1693224142637491</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04463215355994259</v>
+        <v>0.0447261206460001</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05566218067033459</v>
+        <v>0.05523322167759892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1786215543648066</v>
+        <v>0.1769639136128469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03119126969023112</v>
+        <v>0.03183643419014755</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04305728166145173</v>
+        <v>0.0436528268779296</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1586969394469274</v>
+        <v>0.1588744716656784</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04151306977867861</v>
+        <v>0.04211720130960771</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05454372460883862</v>
+        <v>0.05404114965471218</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1766751703272002</v>
+        <v>0.1761172576837861</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07574167211136375</v>
+        <v>0.07660832585799764</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.090489426367101</v>
+        <v>0.09252569474849648</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2344996799321791</v>
+        <v>0.2361141997089508</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05981033257981704</v>
+        <v>0.05940215376636819</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07794736989013271</v>
+        <v>0.07551426184056717</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2017011580465541</v>
+        <v>0.2002873965654098</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06158648596944011</v>
+        <v>0.0626605959674119</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07943315191694278</v>
+        <v>0.07997209349457297</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2117568091492794</v>
+        <v>0.2104300335598767</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.08848392726491799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1901431810374735</v>
+        <v>0.1901431810374734</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.05822181281990715</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02982421473927091</v>
+        <v>0.02971585949229092</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06586907362636758</v>
+        <v>0.06445388617462802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1598849175583905</v>
+        <v>0.1606219644654801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03696715057417112</v>
+        <v>0.03847481053376506</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06107567778521258</v>
+        <v>0.05860291162762841</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1438390187824224</v>
+        <v>0.1454206446348569</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03799087129651903</v>
+        <v>0.0373452162570467</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07017881379114484</v>
+        <v>0.07140305775463911</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1603357270009572</v>
+        <v>0.159008272661202</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06868322858331788</v>
+        <v>0.06875529657331059</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1166638796736263</v>
+        <v>0.1182848291371793</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2206633970611752</v>
+        <v>0.2237347492664027</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08874025879604541</v>
+        <v>0.08984825311721652</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1129903877147823</v>
+        <v>0.111577991387095</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1908635444631039</v>
+        <v>0.1885673949857485</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06889947504760738</v>
+        <v>0.06745769841187046</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.105988356148828</v>
+        <v>0.1100660764415231</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1980800272386462</v>
+        <v>0.1978228828035263</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.05296646337651574</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1364026115295568</v>
+        <v>0.1364026115295569</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.04552600553806018</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04611898262450138</v>
+        <v>0.04532241733626247</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06579714383531315</v>
+        <v>0.0660959704921454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1797516643616752</v>
+        <v>0.1805522074134806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03231993416064508</v>
+        <v>0.03234874761316154</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04583239514857974</v>
+        <v>0.04549108457098977</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1263720429579318</v>
+        <v>0.1260091542763472</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04048886318649646</v>
+        <v>0.04066027905247932</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05774254859654589</v>
+        <v>0.05833075440608756</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1560371647880829</v>
+        <v>0.1552946662248179</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06086111111408325</v>
+        <v>0.06091421608614753</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08448922284227495</v>
+        <v>0.08469015802837229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2140335671629766</v>
+        <v>0.2120760872070745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04533815254196046</v>
+        <v>0.04443307279083365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06053160257954213</v>
+        <v>0.0612931622858258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1476247823368693</v>
+        <v>0.1462608274590444</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05096501525092137</v>
+        <v>0.0514311559518438</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06977865029413484</v>
+        <v>0.07010006258055951</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.175025828697621</v>
+        <v>0.1745853453563531</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>48517</v>
+        <v>49386</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>64590</v>
+        <v>64815</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61821</v>
+        <v>62577</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29678</v>
+        <v>28586</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>39703</v>
+        <v>40004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>43697</v>
+        <v>42299</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>84949</v>
+        <v>85999</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>113912</v>
+        <v>111929</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>114850</v>
+        <v>112859</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81462</v>
+        <v>80003</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>102243</v>
+        <v>100979</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>100097</v>
+        <v>100376</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56366</v>
+        <v>57516</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>69108</v>
+        <v>67904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71069</v>
+        <v>69646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>124691</v>
+        <v>126595</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>158665</v>
+        <v>158331</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>161472</v>
+        <v>161402</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29545</v>
+        <v>30508</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50988</v>
+        <v>52033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>170773</v>
+        <v>172878</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20004</v>
+        <v>20641</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35730</v>
+        <v>35532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>91174</v>
+        <v>90317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>57200</v>
+        <v>56818</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>94037</v>
+        <v>94442</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>273330</v>
+        <v>274435</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55382</v>
+        <v>56823</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>83687</v>
+        <v>83267</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>230323</v>
+        <v>232499</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41081</v>
+        <v>42208</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>63729</v>
+        <v>64287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>128139</v>
+        <v>129476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>90258</v>
+        <v>91074</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>135325</v>
+        <v>139057</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>348214</v>
+        <v>351374</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>39412</v>
+        <v>39495</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45852</v>
+        <v>45499</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>186924</v>
+        <v>185189</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27317</v>
+        <v>27882</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33200</v>
+        <v>33659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>166067</v>
+        <v>166253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>73015</v>
+        <v>74078</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>86987</v>
+        <v>86186</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>369767</v>
+        <v>368600</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>66883</v>
+        <v>67649</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74541</v>
+        <v>76219</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>245399</v>
+        <v>247089</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52382</v>
+        <v>52024</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>60102</v>
+        <v>58226</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>211069</v>
+        <v>209589</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>108321</v>
+        <v>110210</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126681</v>
+        <v>127541</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>443190</v>
+        <v>440414</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15002</v>
+        <v>14948</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>33376</v>
+        <v>32659</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>155647</v>
+        <v>156365</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16736</v>
+        <v>17419</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29909</v>
+        <v>28698</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>130296</v>
+        <v>131729</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36310</v>
+        <v>35693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>69926</v>
+        <v>71146</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>301326</v>
+        <v>298831</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34549</v>
+        <v>34585</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59114</v>
+        <v>59935</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>214815</v>
+        <v>217805</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40176</v>
+        <v>40678</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55331</v>
+        <v>54640</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>172894</v>
+        <v>170814</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65851</v>
+        <v>64473</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>105607</v>
+        <v>109670</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>372261</v>
+        <v>371777</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>157131</v>
+        <v>154417</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>221558</v>
+        <v>222564</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>625037</v>
+        <v>627821</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>114439</v>
+        <v>114541</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>161641</v>
+        <v>160438</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>466239</v>
+        <v>464901</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>281313</v>
+        <v>282504</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>398081</v>
+        <v>402137</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1118263</v>
+        <v>1112942</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>207358</v>
+        <v>207539</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>284499</v>
+        <v>285176</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>744243</v>
+        <v>737436</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>160535</v>
+        <v>157330</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>213482</v>
+        <v>216168</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>544650</v>
+        <v>539617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>354100</v>
+        <v>357339</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>481059</v>
+        <v>483275</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1254348</v>
+        <v>1251191</v>
       </c>
     </row>
     <row r="24">
